--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2512.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2512.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.620973618988115</v>
+        <v>1.618874073028564</v>
       </c>
       <c r="B1">
-        <v>3.708976678528387</v>
+        <v>2.667764186859131</v>
       </c>
       <c r="C1">
-        <v>3.725843824681177</v>
+        <v>3.001014471054077</v>
       </c>
       <c r="D1">
-        <v>2.259127261060374</v>
+        <v>3.359756708145142</v>
       </c>
       <c r="E1">
-        <v>2.500935475188406</v>
+        <v>2.340937852859497</v>
       </c>
     </row>
   </sheetData>
